--- a/功能列表v0.2.xlsx
+++ b/功能列表v0.2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="90">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,57 @@
   </si>
   <si>
     <t>与文章系统结合，提供会员帮助信息的提示；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子功能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录记录
+（操作记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机绑定
+（解绑、更换绑定手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证邮箱
+（绑定邮箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -504,13 +555,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,29 +628,56 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,8 +986,8 @@
     <col min="3" max="3" width="25.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="18" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
     <col min="11" max="11" width="15.625" style="3" customWidth="1"/>
@@ -895,22 +997,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="84.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -931,7 +1033,7 @@
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -968,10 +1070,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="5"/>
@@ -992,10 +1094,10 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <v>1</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1009,10 +1111,10 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1026,10 +1128,10 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1043,10 +1145,10 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1083,7 +1185,7 @@
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -1094,22 +1196,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -1161,7 +1263,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -1195,7 +1297,7 @@
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -1206,22 +1308,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -1273,7 +1375,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -1307,7 +1409,7 @@
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -1318,22 +1420,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -1385,7 +1487,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -1419,7 +1521,7 @@
     <col min="3" max="3" width="25.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -1430,22 +1532,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -1497,7 +1599,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -1518,212 +1620,306 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="15.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="15.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" ht="53.25" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="27">
+    <row r="3" spans="1:15" ht="27">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="27">
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="27">
       <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="148.5">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" ht="27">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:15" ht="40.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" ht="27">
+      <c r="A14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="54">
-      <c r="B7" s="2" t="s">
+    <row r="17" spans="2:4" ht="54">
+      <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="81">
-      <c r="B8" s="2" t="s">
+    <row r="18" spans="2:4" ht="81">
+      <c r="B18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="94.5">
-      <c r="B9" s="2" t="s">
+    <row r="19" spans="2:4" ht="94.5">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="67.5">
-      <c r="B10" s="13" t="s">
+    <row r="20" spans="2:4" ht="67.5">
+      <c r="B20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="2" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="54">
-      <c r="B12" s="2" t="s">
+    <row r="22" spans="2:4" ht="54">
+      <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="108">
-      <c r="B13" s="2" t="s">
+    <row r="23" spans="2:4" ht="108">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="67.5">
-      <c r="B14" s="2" t="s">
+    <row r="24" spans="2:4" ht="67.5">
+      <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="27">
-      <c r="B15" s="2" t="s">
+    <row r="25" spans="2:4" ht="27">
+      <c r="B25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="27">
-      <c r="B16" s="2" t="s">
+    <row r="26" spans="2:4" ht="27">
+      <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="D5:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,7 +1942,7 @@
     <col min="3" max="3" width="25.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -1757,22 +1953,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -1830,7 +2026,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="5"/>
@@ -1894,7 +2090,7 @@
     <col min="3" max="3" width="25.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -1905,22 +2101,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -1976,7 +2172,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -2050,7 +2246,7 @@
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -2061,22 +2257,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -2128,7 +2324,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -2162,7 +2358,7 @@
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -2173,22 +2369,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -2240,7 +2436,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -2274,7 +2470,7 @@
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -2285,22 +2481,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -2352,7 +2548,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -2386,7 +2582,7 @@
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="9" style="3"/>
@@ -2397,22 +2593,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
@@ -2464,7 +2660,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
